--- a/public/template/excel/absensi.xlsx
+++ b/public/template/excel/absensi.xlsx
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,6 +214,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -238,11 +247,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -603,13 +612,13 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="90.109375" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -828,19 +837,18 @@
       <c r="B36" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"BELUM MENGIRIMKAN DATA"</formula>
+  <conditionalFormatting sqref="B3:B1048576">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">
+      <formula>NOT(ISERROR(SEARCH("BELUM MENGIRIMKAN DATA",B3)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"SUDAH MENGIRIMKAN DATA"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">
-      <formula>NOT(ISERROR(SEARCH("BELUM MENGIRIMKAN DATA",B2)))</formula>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"BELUM MENGIRIMKAN DATA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">

--- a/public/template/excel/absensi.xlsx
+++ b/public/template/excel/absensi.xlsx
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>HARI/TGL :</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>POLDA ACEH</t>
   </si>
@@ -135,13 +132,25 @@
   </si>
   <si>
     <t>POLDA KALTARA</t>
+  </si>
+  <si>
+    <t>Senin, 18 Oktober 2021</t>
+  </si>
+  <si>
+    <t>NOMOR</t>
+  </si>
+  <si>
+    <t>POLDA</t>
+  </si>
+  <si>
+    <t>STATUS PENGIRIMAN LAPORAN HARIAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,11 +185,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -196,27 +200,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -233,23 +222,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -258,27 +252,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -609,255 +583,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.109375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="5"/>
+      <c r="C36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">
-      <formula>NOT(ISERROR(SEARCH("BELUM MENGIRIMKAN DATA",B3)))</formula>
+  <conditionalFormatting sqref="B37:B1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">
+      <formula>NOT(ISERROR(SEARCH("BELUM MENGIRIMKAN DATA",B37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"SUDAH MENGIRIMKAN DATA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"BELUM MENGIRIMKAN DATA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="BELUM MENGIRIMKAN DATA">
-      <formula>NOT(ISERROR(SEARCH("BELUM MENGIRIMKAN DATA",B4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"BELUM MENGIRIMKAN DATA"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/template/excel/absensi.xlsx
+++ b/public/template/excel/absensi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>POLDA ACEH</t>
   </si>
@@ -134,9 +134,6 @@
     <t>POLDA KALTARA</t>
   </si>
   <si>
-    <t>Senin, 18 Oktober 2021</t>
-  </si>
-  <si>
     <t>NOMOR</t>
   </si>
   <si>
@@ -144,13 +141,40 @@
   </si>
   <si>
     <t>STATUS PENGIRIMAN LAPORAN HARIAN</t>
+  </si>
+  <si>
+    <t>MARKAS BESAR</t>
+  </si>
+  <si>
+    <t>KEPOLISIAN NEGARA REPUBLIK INDONESIA</t>
+  </si>
+  <si>
+    <t>KORPS LALU LINTAS</t>
+  </si>
+  <si>
+    <t>DATA ABSENSI POLDA</t>
+  </si>
+  <si>
+    <t>TANGGAL 18 NOVEMBER 2021</t>
+  </si>
+  <si>
+    <t>Jakarta, 18 November 2021</t>
+  </si>
+  <si>
+    <t>KAPOSKO OPERASI ZEBRA - 2021</t>
+  </si>
+  <si>
+    <t>DHAFI, S.IK, M.Si.</t>
+  </si>
+  <si>
+    <t>AKBP NRP 76010110010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +209,34 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -200,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -208,31 +260,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -242,10 +279,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,351 +640,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="61.77734375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="15">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
-  <conditionalFormatting sqref="B37:B1048576">
+  <conditionalFormatting sqref="B51:B1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">
-      <formula>NOT(ISERROR(SEARCH("BELUM MENGIRIMKAN DATA",B37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("BELUM MENGIRIMKAN DATA",B51)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"SUDAH MENGIRIMKAN DATA"</formula>

--- a/public/template/excel/absensi.xlsx
+++ b/public/template/excel/absensi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>POLDA ACEH</t>
   </si>
@@ -156,18 +156,6 @@
   </si>
   <si>
     <t>TANGGAL 18 NOVEMBER 2021</t>
-  </si>
-  <si>
-    <t>Jakarta, 18 November 2021</t>
-  </si>
-  <si>
-    <t>KAPOSKO OPERASI ZEBRA - 2021</t>
-  </si>
-  <si>
-    <t>DHAFI, S.IK, M.Si.</t>
-  </si>
-  <si>
-    <t>AKBP NRP 76010110010</t>
   </si>
 </sst>
 </file>
@@ -280,12 +268,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -303,6 +285,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -655,52 +643,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1014,56 +1002,43 @@
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A44:B44"/>
@@ -1074,6 +1049,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <conditionalFormatting sqref="B51:B1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">

--- a/public/template/excel/absensi.xlsx
+++ b/public/template/excel/absensi.xlsx
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +215,7 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -253,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -274,13 +267,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -291,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C50" activeCellId="1" sqref="C49 C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -643,46 +633,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1002,43 +992,48 @@
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="12"/>
-    </row>
-    <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="10"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A44:B44"/>
@@ -1049,11 +1044,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <conditionalFormatting sqref="B51:B1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">

--- a/public/template/excel/absensi.xlsx
+++ b/public/template/excel/absensi.xlsx
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +215,14 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -246,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -267,7 +274,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -278,9 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C50" activeCellId="1" sqref="C49 C50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -633,46 +643,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -992,48 +1002,43 @@
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="11"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A44:B44"/>
@@ -1044,6 +1049,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <conditionalFormatting sqref="B51:B1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">

--- a/public/template/excel/absensi.xlsx
+++ b/public/template/excel/absensi.xlsx
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +215,7 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -253,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -274,13 +267,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -291,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -643,46 +633,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1002,43 +992,48 @@
       <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="12"/>
-    </row>
-    <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="10"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A44:B44"/>
@@ -1049,11 +1044,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <conditionalFormatting sqref="B51:B1048576">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BELUM MENGIRIMKAN DATA">
